--- a/data/trans_bre/P14_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P14_1-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-57,9%</t>
+          <t>-28,29%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>23,86%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 0,41</t>
+          <t>-4,63; 2,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 7,79</t>
+          <t>-3,11; 10,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-93,39; 67,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,32; 60,18</t>
+          <t>-17,49; 87,99</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>181,4%</t>
+          <t>129,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>26,81%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 6,43</t>
+          <t>0,37; 8,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 8,7</t>
+          <t>-0,76; 9,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,51; 556,39</t>
+          <t>-7,1; 529,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 55,28</t>
+          <t>-3,5; 65,23</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-14,66%</t>
+          <t>25,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 1,45</t>
+          <t>-1,81; 3,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 7,7</t>
+          <t>-5,87; 6,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-64,82; 94,68</t>
+          <t>-54,49; 275,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,66; 35,38</t>
+          <t>-19,81; 28,93</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>44,84%</t>
+          <t>-3,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>5,57%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,82</t>
+          <t>-2,04; 1,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 5,89</t>
+          <t>-6,34; 7,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 148,03</t>
+          <t>-51,98; 104,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 33,27</t>
+          <t>-25,9; 48,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,61</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34,05%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 2,4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 5,89</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-18,38; 118,68</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; 31,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P14_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P14_1-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,123 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,76</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-28,29%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>23,86%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.5308938946648283</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.528219674648842</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.2042607959761617</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.2220242311489723</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,63; 2,35</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,11; 10,71</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-17,49; 87,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-4.594390331629872</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.222394988516432</v>
+      </c>
+      <c r="E5" s="6" t="inlineStr"/>
+      <c r="F5" s="6" t="n">
+        <v>-0.1772325721639897</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.976968391168027</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.67634576120371</v>
+      </c>
+      <c r="E6" s="6" t="inlineStr"/>
+      <c r="F6" s="6" t="n">
+        <v>0.8469905839783405</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,18</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,55</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>129,24%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>26,81%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 8,03</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 9,45</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,1; 529,81</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,5; 65,23</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.688283353472658</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.714586784471342</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1.117013980670573</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.2775136871336137</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>25,56%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.1071937176429426</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.4428673574178793</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1234811714461267</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.01963631716411218</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,81; 3,3</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,87; 6,63</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-54,49; 275,73</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-19,81; 28,93</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.391478585614307</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.663936998277443</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>4.907183252679381</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.6764748694692257</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +712,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,13</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-3,12%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,57%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.5030059386885339</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.8589068872987438</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.2015969747305922</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.03225332248143364</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,04; 1,8</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-6,34; 7,78</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-51,98; 104,57</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-25,9; 48,96</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.927794032454809</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.392170802417798</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.5575077142660851</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1814855441687774</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.090780258634071</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>7.084450003165263</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>2.55383725465947</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.3167874314874898</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,61</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>34,05%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>13,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 2,4</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,75; 5,89</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-18,38; 118,68</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 31,81</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.317455555076505</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.208734587165962</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.5333089677095623</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1613210102363417</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.4460227483672342</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2446353538188106</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1685447141244368</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.01108315941561017</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.30124709208892</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.050558032140797</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.994281908742315</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.3852458170191175</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
